--- a/DataDriverFramwork/TestCases.xlsx
+++ b/DataDriverFramwork/TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -38,56 +38,2063 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Open browser and Navigate to  https://justblinds.com</t>
-  </si>
-  <si>
-    <t>The application should Navigate to the "justblinds" Home page</t>
-  </si>
-  <si>
-    <t>Hover over "BLINDS" and then select "Faux Wood Blinds" from top Menu</t>
-  </si>
-  <si>
-    <t>The application should show Faux Wood Blinds with Overview, Description and Specifications</t>
-  </si>
-  <si>
-    <t>Click on "Build your blinds" button</t>
-  </si>
-  <si>
-    <t>The Application should Navigate to the Faux Wood blinds configuration page</t>
-  </si>
-  <si>
-    <t>From "Choose your room", select Kitchen</t>
-  </si>
-  <si>
-    <t>The applcation should highlight "Kitchen" icon</t>
-  </si>
-  <si>
     <t>Pass/Fail</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>From "Name your window(optional)", type Kitchen</t>
-  </si>
-  <si>
-    <t>The application should allow user to type Kitchen</t>
-  </si>
-  <si>
-    <t>From "Choose how you want to hang your blinds", select Inside Mount</t>
-  </si>
-  <si>
-    <t>The applcation should highlight "INSIDE MOUNT" icon</t>
+    <t>Application should navigate to Configuration page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify by updating "Width" to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and click "Add Cart" botton</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open browser and Navigate to  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://justblinds.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The application should Navigate to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"justblinds"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The application should show</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Faux Wood Blinds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with Overview, Description and Specifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Application should Navigate to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Faux Wood blinds configuration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The applcation should highlight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kitchen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> icon box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The application should allow user to type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kitchen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify by Hover over </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLINDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Faux Wood Blinds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from top Menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify by Clicking on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Build your blinds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose your room</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, select Kitchen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name your window(optional)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, type Kitchen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify from  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose how you want to hang your blinds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inside Mount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Available slat sizes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1" SLAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The applcation should highlight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSIDE MOUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> icon box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The applcation should highlight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1" SLAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> icon box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The applcation should highlight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> icon box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify from  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose your color &gt; Deluxe product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify on left side under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Here your item details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Here your item details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should populate below options:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ROOM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kitchen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WINDOW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAME:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kitchen 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MOUNT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inside Mount 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WIDTH:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24 0/0 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEIGHT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 36 0/0 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SLAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIZE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1" Slat 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLOR:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> White  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIFT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cord Lift 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIDE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Right 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TILT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cord Tilt 
+TILT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIDE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Left 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SLAT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Standard Routed Slats 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VALANCE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 1/4" Royal 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GUARANTEE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Standard Warranty
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Now Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The application should Navigate to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page and following options should populate:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Faux Wood Blinds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+THIS ITEM WILL BE MADE IN 13 BUSINESS DAYS.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6/14/2018 (date can be different, depend when test runs)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ROOM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kitchen 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WINDOW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAME:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kitchen 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MOUNT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inside Mount 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WIDTH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24 0/0 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEIGHT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 36 0/0 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SLAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIZE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1" Slat 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLOR:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> White  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIFT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cord Lift 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIDE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Right 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TILT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cord Tilt 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TILT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIDE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Left 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SLAT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Standard Routed Slats 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VALANCE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 1/4" Royal 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GUARANTEE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Standard Warranty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price Per Item should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$150.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Price Per Item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on My cart page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Price Per Item should be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $40.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button on My cart Page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application should navigate to My Cart with Width updated only
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Faux Wood Blinds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+THIS ITEM WILL BE MADE IN 13 BUSINESS DAYS.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EST.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SHIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6/14/2018 (date can be different, depend when test runs)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ROOM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kitchen 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WINDOW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAME:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kitchen 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MOUNT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inside Mount 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WIDTH: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 65 0/0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEIGHT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 36 0/0 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SLAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIZE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1" Slat 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLOR:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> White  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIFT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cord Lift 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIDE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Right 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TILT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cord Tilt 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TILT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIDE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Left 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SLAT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Standard Routed Slats 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VALANCE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 1/4" Royal 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GUARANTEE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Standard Warranty</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +2141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -151,6 +2158,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,22 +2460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="79.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -456,168 +2485,222 @@
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="296.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
